--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.44654466666667</v>
+        <v>6.295968333333334</v>
       </c>
       <c r="H2">
-        <v>58.339634</v>
+        <v>18.887905</v>
       </c>
       <c r="I2">
-        <v>0.7934109702307454</v>
+        <v>0.5052862712055841</v>
       </c>
       <c r="J2">
-        <v>0.7934109702307454</v>
+        <v>0.5052862712055841</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4806873333333333</v>
+        <v>0.05828766666666666</v>
       </c>
       <c r="N2">
-        <v>1.442062</v>
+        <v>0.174863</v>
       </c>
       <c r="O2">
-        <v>0.06311654432781515</v>
+        <v>0.01080277125928955</v>
       </c>
       <c r="P2">
-        <v>0.06311654432781515</v>
+        <v>0.01080277125928955</v>
       </c>
       <c r="Q2">
-        <v>9.347707698367556</v>
+        <v>0.3669773035572222</v>
       </c>
       <c r="R2">
-        <v>84.129369285308</v>
+        <v>3.302795732015</v>
       </c>
       <c r="S2">
-        <v>0.05007735867274366</v>
+        <v>0.00545849200829327</v>
       </c>
       <c r="T2">
-        <v>0.05007735867274366</v>
+        <v>0.00545849200829327</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.44654466666667</v>
+        <v>6.295968333333334</v>
       </c>
       <c r="H3">
-        <v>58.339634</v>
+        <v>18.887905</v>
       </c>
       <c r="I3">
-        <v>0.7934109702307454</v>
+        <v>0.5052862712055841</v>
       </c>
       <c r="J3">
-        <v>0.7934109702307454</v>
+        <v>0.5052862712055841</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.424957333333334</v>
+        <v>3.424957333333333</v>
       </c>
       <c r="N3">
         <v>10.274872</v>
       </c>
       <c r="O3">
-        <v>0.44971326756452</v>
+        <v>0.634766027887426</v>
       </c>
       <c r="P3">
-        <v>0.44971326756452</v>
+        <v>0.634766027887426</v>
       </c>
       <c r="Q3">
-        <v>66.60358576409423</v>
+        <v>21.56342291368444</v>
       </c>
       <c r="R3">
-        <v>599.4322718768482</v>
+        <v>194.07080622316</v>
       </c>
       <c r="S3">
-        <v>0.3568074399440045</v>
+        <v>0.3207385593192173</v>
       </c>
       <c r="T3">
-        <v>0.3568074399440046</v>
+        <v>0.3207385593192173</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.44654466666667</v>
+        <v>6.295968333333334</v>
       </c>
       <c r="H4">
-        <v>58.339634</v>
+        <v>18.887905</v>
       </c>
       <c r="I4">
-        <v>0.7934109702307454</v>
+        <v>0.5052862712055841</v>
       </c>
       <c r="J4">
-        <v>0.7934109702307454</v>
+        <v>0.5052862712055841</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.710224333333334</v>
+        <v>1.912376666666667</v>
       </c>
       <c r="N4">
-        <v>11.130673</v>
+        <v>5.737130000000001</v>
       </c>
       <c r="O4">
-        <v>0.4871701881076648</v>
+        <v>0.3544312008532844</v>
       </c>
       <c r="P4">
-        <v>0.4871701881076648</v>
+        <v>0.3544312008532844</v>
       </c>
       <c r="Q4">
-        <v>72.15104322152024</v>
+        <v>12.04026293473889</v>
       </c>
       <c r="R4">
-        <v>649.3593889936822</v>
+        <v>108.36236641265</v>
       </c>
       <c r="S4">
-        <v>0.386526171613997</v>
+        <v>0.1790892198780736</v>
       </c>
       <c r="T4">
-        <v>0.386526171613997</v>
+        <v>0.1790892198780736</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>7.573247</v>
       </c>
       <c r="I5">
-        <v>0.1029951139231878</v>
+        <v>0.2025983155648483</v>
       </c>
       <c r="J5">
-        <v>0.1029951139231878</v>
+        <v>0.2025983155648483</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.4806873333333333</v>
+        <v>0.05828766666666666</v>
       </c>
       <c r="N5">
-        <v>1.442062</v>
+        <v>0.174863</v>
       </c>
       <c r="O5">
-        <v>0.06311654432781515</v>
+        <v>0.01080277125928955</v>
       </c>
       <c r="P5">
-        <v>0.06311654432781515</v>
+        <v>0.01080277125928955</v>
       </c>
       <c r="Q5">
-        <v>1.213454635034889</v>
+        <v>0.1471422989067778</v>
       </c>
       <c r="R5">
-        <v>10.921091715314</v>
+        <v>1.324280690161</v>
       </c>
       <c r="S5">
-        <v>0.006500695673481255</v>
+        <v>0.002188623260564418</v>
       </c>
       <c r="T5">
-        <v>0.006500695673481255</v>
+        <v>0.002188623260564419</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>7.573247</v>
       </c>
       <c r="I6">
-        <v>0.1029951139231878</v>
+        <v>0.2025983155648483</v>
       </c>
       <c r="J6">
-        <v>0.1029951139231878</v>
+        <v>0.2025983155648483</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.424957333333334</v>
+        <v>3.424957333333333</v>
       </c>
       <c r="N6">
         <v>10.274872</v>
       </c>
       <c r="O6">
-        <v>0.44971326756452</v>
+        <v>0.634766027887426</v>
       </c>
       <c r="P6">
-        <v>0.44971326756452</v>
+        <v>0.634766027887426</v>
       </c>
       <c r="Q6">
         <v>8.646015949931556</v>
       </c>
       <c r="R6">
-        <v>77.81414354938401</v>
+        <v>77.814143549384</v>
       </c>
       <c r="S6">
-        <v>0.04631826922557677</v>
+        <v>0.128602528027782</v>
       </c>
       <c r="T6">
-        <v>0.04631826922557678</v>
+        <v>0.128602528027782</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>7.573247</v>
       </c>
       <c r="I7">
-        <v>0.1029951139231878</v>
+        <v>0.2025983155648483</v>
       </c>
       <c r="J7">
-        <v>0.1029951139231878</v>
+        <v>0.2025983155648483</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.710224333333334</v>
+        <v>1.912376666666667</v>
       </c>
       <c r="N7">
-        <v>11.130673</v>
+        <v>5.737130000000001</v>
       </c>
       <c r="O7">
-        <v>0.4871701881076648</v>
+        <v>0.3544312008532844</v>
       </c>
       <c r="P7">
-        <v>0.4871701881076648</v>
+        <v>0.3544312008532844</v>
       </c>
       <c r="Q7">
-        <v>9.366148433914557</v>
+        <v>4.827633617901111</v>
       </c>
       <c r="R7">
-        <v>84.29533590523101</v>
+        <v>43.44870256111</v>
       </c>
       <c r="S7">
-        <v>0.05017614902412978</v>
+        <v>0.07180716427650186</v>
       </c>
       <c r="T7">
-        <v>0.05017614902412978</v>
+        <v>0.07180716427650187</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.539092333333333</v>
+        <v>3.639816666666666</v>
       </c>
       <c r="H8">
-        <v>7.617277</v>
+        <v>10.91945</v>
       </c>
       <c r="I8">
-        <v>0.1035939158460669</v>
+        <v>0.2921154132295675</v>
       </c>
       <c r="J8">
-        <v>0.1035939158460669</v>
+        <v>0.2921154132295676</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.4806873333333333</v>
+        <v>0.05828766666666666</v>
       </c>
       <c r="N8">
-        <v>1.442062</v>
+        <v>0.174863</v>
       </c>
       <c r="O8">
-        <v>0.06311654432781515</v>
+        <v>0.01080277125928955</v>
       </c>
       <c r="P8">
-        <v>0.06311654432781515</v>
+        <v>0.01080277125928955</v>
       </c>
       <c r="Q8">
-        <v>1.220509522797111</v>
+        <v>0.2121564205944444</v>
       </c>
       <c r="R8">
-        <v>10.984585705174</v>
+        <v>1.90940778535</v>
       </c>
       <c r="S8">
-        <v>0.00653848998159023</v>
+        <v>0.003155655990431863</v>
       </c>
       <c r="T8">
-        <v>0.00653848998159023</v>
+        <v>0.003155655990431864</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.539092333333333</v>
+        <v>3.639816666666666</v>
       </c>
       <c r="H9">
-        <v>7.617277</v>
+        <v>10.91945</v>
       </c>
       <c r="I9">
-        <v>0.1035939158460669</v>
+        <v>0.2921154132295675</v>
       </c>
       <c r="J9">
-        <v>0.1035939158460669</v>
+        <v>0.2921154132295676</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.424957333333334</v>
+        <v>3.424957333333333</v>
       </c>
       <c r="N9">
         <v>10.274872</v>
       </c>
       <c r="O9">
-        <v>0.44971326756452</v>
+        <v>0.634766027887426</v>
       </c>
       <c r="P9">
-        <v>0.44971326756452</v>
+        <v>0.634766027887426</v>
       </c>
       <c r="Q9">
-        <v>8.696282907060445</v>
+        <v>12.46621678448889</v>
       </c>
       <c r="R9">
-        <v>78.26654616354401</v>
+        <v>112.1959510604</v>
       </c>
       <c r="S9">
-        <v>0.04658755839493862</v>
+        <v>0.1854249405404266</v>
       </c>
       <c r="T9">
-        <v>0.04658755839493863</v>
+        <v>0.1854249405404267</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.539092333333333</v>
+        <v>3.639816666666666</v>
       </c>
       <c r="H10">
-        <v>7.617277</v>
+        <v>10.91945</v>
       </c>
       <c r="I10">
-        <v>0.1035939158460669</v>
+        <v>0.2921154132295675</v>
       </c>
       <c r="J10">
-        <v>0.1035939158460669</v>
+        <v>0.2921154132295676</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.710224333333334</v>
+        <v>1.912376666666667</v>
       </c>
       <c r="N10">
-        <v>11.130673</v>
+        <v>5.737130000000001</v>
       </c>
       <c r="O10">
-        <v>0.4871701881076648</v>
+        <v>0.3544312008532844</v>
       </c>
       <c r="P10">
-        <v>0.4871701881076648</v>
+        <v>0.3544312008532844</v>
       </c>
       <c r="Q10">
-        <v>9.420602159713445</v>
+        <v>6.960700464277778</v>
       </c>
       <c r="R10">
-        <v>84.78541943742101</v>
+        <v>62.6463041785</v>
       </c>
       <c r="S10">
-        <v>0.05046786746953798</v>
+        <v>0.103534816698709</v>
       </c>
       <c r="T10">
-        <v>0.05046786746953798</v>
+        <v>0.1035348166987091</v>
       </c>
     </row>
   </sheetData>
